--- a/Exc4/РолиПраваГруппы.xlsx
+++ b/Exc4/РолиПраваГруппы.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">роли групп</t>
   </si>
@@ -28,49 +28,58 @@
     <t xml:space="preserve">владелеца продукта</t>
   </si>
   <si>
+    <t xml:space="preserve">reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разработчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инженер по эксплуатации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DevOps-инженер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">специалист по ИБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">менеджеры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет роли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аналитик BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бухгалтер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бизнес-аналитик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">права ролей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster-admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cluster-reader</t>
   </si>
   <si>
-    <t xml:space="preserve">разработчик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Инженер по эксплуатации</t>
+    <t xml:space="preserve">get list watch</t>
   </si>
   <si>
     <t xml:space="preserve">Cluster-editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DevOps-инженер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster-admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">специалист по ИБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">менеджеры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нет роли</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аналитик BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бухгалтер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бизнес-аналитик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">права ролей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get list watch</t>
   </si>
   <si>
     <t xml:space="preserve">get list watch create delete update</t>
@@ -83,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,12 +122,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,10 +206,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -289,10 +288,10 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.02"/>
@@ -411,10 +410,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
